--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.059282</v>
+        <v>0.001937666666666667</v>
       </c>
       <c r="N2">
-        <v>6.177846</v>
+        <v>0.005813</v>
       </c>
       <c r="O2">
-        <v>0.9506927780787987</v>
+        <v>0.0230007399171451</v>
       </c>
       <c r="P2">
-        <v>0.9506927780787987</v>
+        <v>0.02300073991714511</v>
       </c>
       <c r="Q2">
-        <v>379.0369857614347</v>
+        <v>0.1238385676345555</v>
       </c>
       <c r="R2">
-        <v>3411.332871852912</v>
+        <v>1.114547108711</v>
       </c>
       <c r="S2">
-        <v>0.6189490799594844</v>
+        <v>0.009356532886883765</v>
       </c>
       <c r="T2">
-        <v>0.6189490799594846</v>
+        <v>0.009356532886883769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08230599999999999</v>
+        <v>0.082306</v>
       </c>
       <c r="N3">
         <v>0.246918</v>
       </c>
       <c r="O3">
-        <v>0.03799757381094653</v>
+        <v>0.9769992600828549</v>
       </c>
       <c r="P3">
-        <v>0.03799757381094653</v>
+        <v>0.976999260082855</v>
       </c>
       <c r="Q3">
-        <v>15.14946381801066</v>
+        <v>5.260273773127333</v>
       </c>
       <c r="R3">
-        <v>136.345174362096</v>
+        <v>47.342463958146</v>
       </c>
       <c r="S3">
-        <v>0.02473834228393456</v>
+        <v>0.397436158156471</v>
       </c>
       <c r="T3">
-        <v>0.02473834228393456</v>
+        <v>0.3974361581564712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>57.4434</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>172.3302</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02449766666666666</v>
+        <v>0.001937666666666667</v>
       </c>
       <c r="N4">
-        <v>0.07349299999999999</v>
+        <v>0.005813</v>
       </c>
       <c r="O4">
-        <v>0.0113096481102548</v>
+        <v>0.0230007399171451</v>
       </c>
       <c r="P4">
-        <v>0.0113096481102548</v>
+        <v>0.02300073991714511</v>
       </c>
       <c r="Q4">
-        <v>4.509106441721777</v>
+        <v>0.1113061614</v>
       </c>
       <c r="R4">
-        <v>40.581957975496</v>
+        <v>1.0017554526</v>
       </c>
       <c r="S4">
-        <v>0.007363152906929436</v>
+        <v>0.008409656050973994</v>
       </c>
       <c r="T4">
-        <v>0.007363152906929437</v>
+        <v>0.008409656050973997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.059282</v>
+        <v>0.082306</v>
       </c>
       <c r="N5">
-        <v>6.177846</v>
+        <v>0.246918</v>
       </c>
       <c r="O5">
-        <v>0.9506927780787987</v>
+        <v>0.9769992600828549</v>
       </c>
       <c r="P5">
-        <v>0.9506927780787987</v>
+        <v>0.976999260082855</v>
       </c>
       <c r="Q5">
-        <v>118.2921596388</v>
+        <v>4.7279364804</v>
       </c>
       <c r="R5">
-        <v>1064.6294367492</v>
+        <v>42.5514283236</v>
       </c>
       <c r="S5">
-        <v>0.1931653799635751</v>
+        <v>0.3572158012720449</v>
       </c>
       <c r="T5">
-        <v>0.1931653799635751</v>
+        <v>0.357215801272045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.4434</v>
+        <v>35.755375</v>
       </c>
       <c r="H6">
-        <v>172.3302</v>
+        <v>107.266125</v>
       </c>
       <c r="I6">
-        <v>0.2031838091312023</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J6">
-        <v>0.2031838091312023</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,33 +800,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08230599999999999</v>
+        <v>0.001937666666666667</v>
       </c>
       <c r="N6">
-        <v>0.246918</v>
+        <v>0.005813</v>
       </c>
       <c r="O6">
-        <v>0.03799757381094653</v>
+        <v>0.0230007399171451</v>
       </c>
       <c r="P6">
-        <v>0.03799757381094653</v>
+        <v>0.02300073991714511</v>
       </c>
       <c r="Q6">
-        <v>4.727936480399999</v>
+        <v>0.06928199829166666</v>
       </c>
       <c r="R6">
-        <v>42.5514283236</v>
+        <v>0.623537984625</v>
       </c>
       <c r="S6">
-        <v>0.007720491784652132</v>
+        <v>0.005234550979287339</v>
       </c>
       <c r="T6">
-        <v>0.007720491784652132</v>
+        <v>0.00523455097928734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.4434</v>
+        <v>35.755375</v>
       </c>
       <c r="H7">
-        <v>172.3302</v>
+        <v>107.266125</v>
       </c>
       <c r="I7">
-        <v>0.2031838091312023</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J7">
-        <v>0.2031838091312023</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,214 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.02449766666666666</v>
+        <v>0.082306</v>
       </c>
       <c r="N7">
-        <v>0.07349299999999999</v>
+        <v>0.246918</v>
       </c>
       <c r="O7">
-        <v>0.0113096481102548</v>
+        <v>0.9769992600828549</v>
       </c>
       <c r="P7">
-        <v>0.0113096481102548</v>
+        <v>0.976999260082855</v>
       </c>
       <c r="Q7">
-        <v>1.4072292654</v>
+        <v>2.94288189475</v>
       </c>
       <c r="R7">
-        <v>12.6650633886</v>
+        <v>26.48593705275</v>
       </c>
       <c r="S7">
-        <v>0.002297937382975073</v>
+        <v>0.2223473006543388</v>
       </c>
       <c r="T7">
-        <v>0.002297937382975073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H8">
-        <v>123.631001</v>
-      </c>
-      <c r="I8">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J8">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>2.059282</v>
-      </c>
-      <c r="N8">
-        <v>6.177846</v>
-      </c>
-      <c r="O8">
-        <v>0.9506927780787987</v>
-      </c>
-      <c r="P8">
-        <v>0.9506927780787987</v>
-      </c>
-      <c r="Q8">
-        <v>84.86369833376068</v>
-      </c>
-      <c r="R8">
-        <v>763.773285003846</v>
-      </c>
-      <c r="S8">
-        <v>0.138578318155739</v>
-      </c>
-      <c r="T8">
-        <v>0.138578318155739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H9">
-        <v>123.631001</v>
-      </c>
-      <c r="I9">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J9">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.08230599999999999</v>
-      </c>
-      <c r="N9">
-        <v>0.246918</v>
-      </c>
-      <c r="O9">
-        <v>0.03799757381094653</v>
-      </c>
-      <c r="P9">
-        <v>0.03799757381094653</v>
-      </c>
-      <c r="Q9">
-        <v>3.391857722768667</v>
-      </c>
-      <c r="R9">
-        <v>30.526719504918</v>
-      </c>
-      <c r="S9">
-        <v>0.005538739742359839</v>
-      </c>
-      <c r="T9">
-        <v>0.005538739742359839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H10">
-        <v>123.631001</v>
-      </c>
-      <c r="I10">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J10">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02449766666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.07349299999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.0113096481102548</v>
-      </c>
-      <c r="P10">
-        <v>0.0113096481102548</v>
-      </c>
-      <c r="Q10">
-        <v>1.009557017388111</v>
-      </c>
-      <c r="R10">
-        <v>9.086013156492999</v>
-      </c>
-      <c r="S10">
-        <v>0.001648557820350285</v>
-      </c>
-      <c r="T10">
-        <v>0.001648557820350285</v>
+        <v>0.2223473006543388</v>
       </c>
     </row>
   </sheetData>
